--- a/all_congresses.xlsx
+++ b/all_congresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmurray/Banzai-predicament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C88199-63B4-0A46-9EB9-9580CE8C19CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84A332E-2D29-9143-ACB4-7E638B2BCACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1000" windowWidth="22240" windowHeight="16440" xr2:uid="{11A546A8-5EB8-8C48-B726-E6C8776BF769}"/>
+    <workbookView xWindow="6560" yWindow="700" windowWidth="22240" windowHeight="16440" xr2:uid="{11A546A8-5EB8-8C48-B726-E6C8776BF769}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="136">
   <si>
     <t>party1_name</t>
   </si>
@@ -433,6 +433,15 @@
   </si>
   <si>
     <t>end_year</t>
+  </si>
+  <si>
+    <t>num_senate</t>
+  </si>
+  <si>
+    <t>party1_seats_senate</t>
+  </si>
+  <si>
+    <t>party2_seats_senate</t>
   </si>
 </sst>
 </file>
@@ -493,14 +502,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -816,18 +824,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D75FA8-0CD4-4F4B-A490-20E617924BC7}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -852,8 +866,17 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -878,8 +901,17 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -904,8 +936,17 @@
       <c r="H3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -930,8 +971,17 @@
       <c r="H4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -956,8 +1006,17 @@
       <c r="H5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -982,8 +1041,17 @@
       <c r="H6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1008,8 +1076,17 @@
       <c r="H7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1034,8 +1111,17 @@
       <c r="H8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1060,8 +1146,17 @@
       <c r="H9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1086,8 +1181,17 @@
       <c r="H10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1112,8 +1216,17 @@
       <c r="H11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1138,8 +1251,17 @@
       <c r="H12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2">
+        <v>7</v>
+      </c>
+      <c r="K12" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1164,8 +1286,17 @@
       <c r="H13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1190,8 +1321,17 @@
       <c r="H14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2">
+        <v>36</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1216,8 +1356,17 @@
       <c r="H15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2">
+        <v>12</v>
+      </c>
+      <c r="K15" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1242,8 +1391,17 @@
       <c r="H16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2">
+        <v>42</v>
+      </c>
+      <c r="J16" s="2">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1268,8 +1426,17 @@
       <c r="H17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2">
+        <v>46</v>
+      </c>
+      <c r="J17" s="2">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1294,15 +1461,24 @@
       <c r="H18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2">
+        <v>48</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="2">
         <v>1823</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="2">
         <v>1825</v>
       </c>
       <c r="D19" s="2">
@@ -1320,8 +1496,17 @@
       <c r="H19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2">
+        <v>48</v>
+      </c>
+      <c r="J19" s="2">
+        <v>17</v>
+      </c>
+      <c r="K19" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1346,8 +1531,17 @@
       <c r="H20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2">
+        <v>48</v>
+      </c>
+      <c r="J20" s="2">
+        <v>22</v>
+      </c>
+      <c r="K20" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1372,8 +1566,17 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2">
+        <v>48</v>
+      </c>
+      <c r="J21" s="2">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1398,15 +1601,24 @@
       <c r="H22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2">
+        <v>48</v>
+      </c>
+      <c r="J22" s="2">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="2">
         <v>1831</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="2">
         <v>1833</v>
       </c>
       <c r="D23" s="2">
@@ -1424,15 +1636,24 @@
       <c r="H23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2">
+        <v>48</v>
+      </c>
+      <c r="J23" s="2">
+        <v>24</v>
+      </c>
+      <c r="K23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="2">
         <v>1833</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="2">
         <v>1835</v>
       </c>
       <c r="D24" s="2">
@@ -1450,15 +1671,24 @@
       <c r="H24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2">
+        <v>48</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="2">
         <v>1835</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="2">
         <v>1837</v>
       </c>
       <c r="D25" s="2">
@@ -1476,15 +1706,24 @@
       <c r="H25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2">
+        <v>52</v>
+      </c>
+      <c r="J25" s="2">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="2">
         <v>1837</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="2">
         <v>1839</v>
       </c>
       <c r="D26" s="2">
@@ -1502,15 +1741,24 @@
       <c r="H26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2">
+        <v>52</v>
+      </c>
+      <c r="J26" s="2">
+        <v>35</v>
+      </c>
+      <c r="K26" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="2">
         <v>1839</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="2">
         <v>1841</v>
       </c>
       <c r="D27" s="2">
@@ -1528,15 +1776,24 @@
       <c r="H27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2">
+        <v>52</v>
+      </c>
+      <c r="J27" s="2">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="2">
         <v>1841</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="2">
         <v>1843</v>
       </c>
       <c r="D28" s="2">
@@ -1554,15 +1811,24 @@
       <c r="H28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2">
+        <v>52</v>
+      </c>
+      <c r="J28" s="2">
+        <v>22</v>
+      </c>
+      <c r="K28" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="2">
         <v>1843</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="2">
         <v>1845</v>
       </c>
       <c r="D29" s="2">
@@ -1580,8 +1846,17 @@
       <c r="H29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2">
+        <v>52</v>
+      </c>
+      <c r="J29" s="2">
+        <v>23</v>
+      </c>
+      <c r="K29" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1606,15 +1881,24 @@
       <c r="H30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2">
+        <v>58</v>
+      </c>
+      <c r="J30" s="2">
+        <v>34</v>
+      </c>
+      <c r="K30" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="2">
         <v>1847</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="2">
         <v>1849</v>
       </c>
       <c r="D31" s="2">
@@ -1632,15 +1916,24 @@
       <c r="H31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2">
+        <v>60</v>
+      </c>
+      <c r="J31" s="2">
+        <v>38</v>
+      </c>
+      <c r="K31" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="2">
         <v>1849</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="2">
         <v>1851</v>
       </c>
       <c r="D32" s="2">
@@ -1658,15 +1951,24 @@
       <c r="H32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="2">
+        <v>62</v>
+      </c>
+      <c r="J32" s="2">
+        <v>35</v>
+      </c>
+      <c r="K32" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="2">
         <v>1851</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="2">
         <v>1853</v>
       </c>
       <c r="D33" s="2">
@@ -1684,15 +1986,24 @@
       <c r="H33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="2">
+        <v>62</v>
+      </c>
+      <c r="J33" s="2">
+        <v>36</v>
+      </c>
+      <c r="K33" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="2">
         <v>1853</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="2">
         <v>1855</v>
       </c>
       <c r="D34" s="2">
@@ -1710,8 +2021,17 @@
       <c r="H34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="2">
+        <v>62</v>
+      </c>
+      <c r="J34" s="2">
+        <v>38</v>
+      </c>
+      <c r="K34" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1736,15 +2056,24 @@
       <c r="H35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="2">
+        <v>62</v>
+      </c>
+      <c r="J35" s="2">
+        <v>39</v>
+      </c>
+      <c r="K35" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="2">
         <v>1857</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="2">
         <v>1859</v>
       </c>
       <c r="D36" s="2">
@@ -1762,15 +2091,24 @@
       <c r="H36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="2">
+        <v>66</v>
+      </c>
+      <c r="J36" s="2">
+        <v>41</v>
+      </c>
+      <c r="K36" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="2">
         <v>1859</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="2">
         <v>1861</v>
       </c>
       <c r="D37" s="2">
@@ -1788,15 +2126,24 @@
       <c r="H37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="2">
+        <v>66</v>
+      </c>
+      <c r="J37" s="2">
+        <v>38</v>
+      </c>
+      <c r="K37" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="2">
         <v>1861</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="2">
         <v>1863</v>
       </c>
       <c r="D38" s="2">
@@ -1814,15 +2161,24 @@
       <c r="H38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="2">
+        <v>50</v>
+      </c>
+      <c r="J38" s="2">
+        <v>15</v>
+      </c>
+      <c r="K38" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="2">
         <v>1863</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="2">
         <v>1865</v>
       </c>
       <c r="D39" s="2">
@@ -1840,15 +2196,24 @@
       <c r="H39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="2">
+        <v>52</v>
+      </c>
+      <c r="J39" s="2">
+        <v>10</v>
+      </c>
+      <c r="K39" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="2">
         <v>1865</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="2">
         <v>1867</v>
       </c>
       <c r="D40" s="2">
@@ -1866,15 +2231,24 @@
       <c r="H40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="2">
+        <v>54</v>
+      </c>
+      <c r="J40" s="2">
+        <v>11</v>
+      </c>
+      <c r="K40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="2">
         <v>1867</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="2">
         <v>1869</v>
       </c>
       <c r="D41" s="2">
@@ -1892,8 +2266,17 @@
       <c r="H41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="2">
+        <v>68</v>
+      </c>
+      <c r="J41" s="2">
+        <v>9</v>
+      </c>
+      <c r="K41" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1918,15 +2301,24 @@
       <c r="H42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="2">
+        <v>74</v>
+      </c>
+      <c r="J42" s="2">
+        <v>12</v>
+      </c>
+      <c r="K42" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="2">
         <v>1871</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="2">
         <v>1873</v>
       </c>
       <c r="D43" s="2">
@@ -1944,15 +2336,24 @@
       <c r="H43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="2">
+        <v>74</v>
+      </c>
+      <c r="J43" s="2">
+        <v>17</v>
+      </c>
+      <c r="K43" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="2">
         <v>1873</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="2">
         <v>1875</v>
       </c>
       <c r="D44" s="2">
@@ -1970,15 +2371,24 @@
       <c r="H44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="2">
+        <v>74</v>
+      </c>
+      <c r="J44" s="2">
+        <v>19</v>
+      </c>
+      <c r="K44" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="2">
         <v>1875</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="2">
         <v>1877</v>
       </c>
       <c r="D45" s="2">
@@ -1996,8 +2406,17 @@
       <c r="H45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="2">
+        <v>76</v>
+      </c>
+      <c r="J45" s="2">
+        <v>28</v>
+      </c>
+      <c r="K45" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2022,15 +2441,24 @@
       <c r="H46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" s="2">
+        <v>35</v>
+      </c>
+      <c r="K46" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="2">
         <v>1879</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="2">
         <v>1881</v>
       </c>
       <c r="D47" s="2">
@@ -2048,15 +2476,24 @@
       <c r="H47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" s="2">
+        <v>42</v>
+      </c>
+      <c r="K47" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="2">
         <v>1881</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="2">
         <v>1883</v>
       </c>
       <c r="D48" s="2">
@@ -2074,15 +2511,24 @@
       <c r="H48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="2">
+        <v>76</v>
+      </c>
+      <c r="J48" s="2">
+        <v>37</v>
+      </c>
+      <c r="K48" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="2">
         <v>1883</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="2">
         <v>1885</v>
       </c>
       <c r="D49" s="2">
@@ -2100,15 +2546,24 @@
       <c r="H49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" s="2">
+        <v>36</v>
+      </c>
+      <c r="K49" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="2">
         <v>1885</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="2">
         <v>1887</v>
       </c>
       <c r="D50" s="2">
@@ -2126,15 +2581,24 @@
       <c r="H50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" s="2">
+        <v>34</v>
+      </c>
+      <c r="K50" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="2">
         <v>1887</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="2">
         <v>1889</v>
       </c>
       <c r="D51" s="2">
@@ -2152,8 +2616,17 @@
       <c r="H51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" s="2">
+        <v>37</v>
+      </c>
+      <c r="K51" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2178,8 +2651,17 @@
       <c r="H52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="2">
+        <v>88</v>
+      </c>
+      <c r="J52" s="2">
+        <v>37</v>
+      </c>
+      <c r="K52" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2204,15 +2686,24 @@
       <c r="H53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="2">
+        <v>88</v>
+      </c>
+      <c r="J53" s="2">
+        <v>39</v>
+      </c>
+      <c r="K53" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="2">
         <v>1893</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="2">
         <v>1895</v>
       </c>
       <c r="D54" s="2">
@@ -2230,15 +2721,24 @@
       <c r="H54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="2">
+        <v>88</v>
+      </c>
+      <c r="J54" s="2">
+        <v>44</v>
+      </c>
+      <c r="K54" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="2">
         <v>1895</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="2">
         <v>1897</v>
       </c>
       <c r="D55" s="2">
@@ -2256,15 +2756,24 @@
       <c r="H55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="2">
+        <v>90</v>
+      </c>
+      <c r="J55" s="2">
+        <v>40</v>
+      </c>
+      <c r="K55" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="2">
         <v>1897</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="2">
         <v>1899</v>
       </c>
       <c r="D56" s="2">
@@ -2282,15 +2791,24 @@
       <c r="H56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="2">
+        <v>90</v>
+      </c>
+      <c r="J56" s="2">
+        <v>34</v>
+      </c>
+      <c r="K56" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="2">
         <v>1899</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="2">
         <v>1901</v>
       </c>
       <c r="D57" s="2">
@@ -2308,15 +2826,24 @@
       <c r="H57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="2">
+        <v>90</v>
+      </c>
+      <c r="J57" s="2">
+        <v>26</v>
+      </c>
+      <c r="K57" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="2">
         <v>1901</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="2">
         <v>1903</v>
       </c>
       <c r="D58" s="2">
@@ -2334,8 +2861,17 @@
       <c r="H58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="2">
+        <v>90</v>
+      </c>
+      <c r="J58" s="2">
+        <v>32</v>
+      </c>
+      <c r="K58" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2360,8 +2896,17 @@
       <c r="H59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="2">
+        <v>90</v>
+      </c>
+      <c r="J59" s="2">
+        <v>33</v>
+      </c>
+      <c r="K59" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2386,8 +2931,17 @@
       <c r="H60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="2">
+        <v>92</v>
+      </c>
+      <c r="J60" s="2">
+        <v>32</v>
+      </c>
+      <c r="K60" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2412,8 +2966,17 @@
       <c r="H61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="2">
+        <v>92</v>
+      </c>
+      <c r="J61" s="2">
+        <v>31</v>
+      </c>
+      <c r="K61" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2438,15 +3001,24 @@
       <c r="H62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="2">
+        <v>92</v>
+      </c>
+      <c r="J62" s="2">
+        <v>32</v>
+      </c>
+      <c r="K62" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="2">
         <v>1911</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="2">
         <v>1913</v>
       </c>
       <c r="D63" s="2">
@@ -2464,15 +3036,24 @@
       <c r="H63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="2">
+        <v>96</v>
+      </c>
+      <c r="J63" s="2">
+        <v>44</v>
+      </c>
+      <c r="K63" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="2">
         <v>1913</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="2">
         <v>1915</v>
       </c>
       <c r="D64" s="2">
@@ -2490,15 +3071,24 @@
       <c r="H64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="2">
+        <v>96</v>
+      </c>
+      <c r="J64" s="2">
+        <v>44</v>
+      </c>
+      <c r="K64" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="2">
         <v>1915</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="2">
         <v>1917</v>
       </c>
       <c r="D65" s="2">
@@ -2516,15 +3106,24 @@
       <c r="H65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="2">
+        <v>96</v>
+      </c>
+      <c r="J65" s="2">
+        <v>56</v>
+      </c>
+      <c r="K65" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="2">
         <v>1917</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="2">
         <v>1919</v>
       </c>
       <c r="D66" s="2">
@@ -2542,15 +3141,24 @@
       <c r="H66" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="2">
+        <v>96</v>
+      </c>
+      <c r="J66" s="2">
+        <v>54</v>
+      </c>
+      <c r="K66" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="2">
         <v>1919</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="2">
         <v>1921</v>
       </c>
       <c r="D67" s="2">
@@ -2568,15 +3176,24 @@
       <c r="H67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="2">
+        <v>96</v>
+      </c>
+      <c r="J67" s="2">
+        <v>47</v>
+      </c>
+      <c r="K67" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="2">
         <v>1921</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="2">
         <v>1923</v>
       </c>
       <c r="D68" s="2">
@@ -2594,15 +3211,24 @@
       <c r="H68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="2">
+        <v>96</v>
+      </c>
+      <c r="J68" s="2">
+        <v>37</v>
+      </c>
+      <c r="K68">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="2">
         <v>1923</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="2">
         <v>1925</v>
       </c>
       <c r="D69" s="2">
@@ -2620,15 +3246,24 @@
       <c r="H69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="2">
+        <v>96</v>
+      </c>
+      <c r="J69" s="2">
+        <v>42</v>
+      </c>
+      <c r="K69" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="2">
         <v>1925</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="2">
         <v>1927</v>
       </c>
       <c r="D70" s="2">
@@ -2646,15 +3281,24 @@
       <c r="H70" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="2">
+        <v>96</v>
+      </c>
+      <c r="J70" s="2">
+        <v>41</v>
+      </c>
+      <c r="K70" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="2">
         <v>1927</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="2">
         <v>1929</v>
       </c>
       <c r="D71" s="2">
@@ -2672,8 +3316,17 @@
       <c r="H71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="2">
+        <v>96</v>
+      </c>
+      <c r="J71" s="2">
+        <v>46</v>
+      </c>
+      <c r="K71" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2698,8 +3351,17 @@
       <c r="H72" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="2">
+        <v>96</v>
+      </c>
+      <c r="J72" s="2">
+        <v>39</v>
+      </c>
+      <c r="K72" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2724,8 +3386,17 @@
       <c r="H73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="2">
+        <v>96</v>
+      </c>
+      <c r="J73" s="2">
+        <v>47</v>
+      </c>
+      <c r="K73" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2750,15 +3421,24 @@
       <c r="H74" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="2">
+        <v>96</v>
+      </c>
+      <c r="J74" s="2">
+        <v>59</v>
+      </c>
+      <c r="K74" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="2">
         <v>1935</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="2">
         <v>1937</v>
       </c>
       <c r="D75" s="2">
@@ -2776,15 +3456,24 @@
       <c r="H75" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="2">
+        <v>96</v>
+      </c>
+      <c r="J75" s="2">
+        <v>69</v>
+      </c>
+      <c r="K75" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="2">
         <v>1937</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="2">
         <v>1939</v>
       </c>
       <c r="D76" s="2">
@@ -2802,15 +3491,24 @@
       <c r="H76" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="2">
+        <v>96</v>
+      </c>
+      <c r="J76" s="2">
+        <v>76</v>
+      </c>
+      <c r="K76" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="2">
         <v>1939</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="2">
         <v>1941</v>
       </c>
       <c r="D77" s="2">
@@ -2828,15 +3526,24 @@
       <c r="H77" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="2">
+        <v>96</v>
+      </c>
+      <c r="J77" s="2">
+        <v>69</v>
+      </c>
+      <c r="K77" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="2">
         <v>1941</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="2">
         <v>1943</v>
       </c>
       <c r="D78" s="2">
@@ -2854,15 +3561,24 @@
       <c r="H78" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="2">
+        <v>96</v>
+      </c>
+      <c r="J78" s="2">
+        <v>66</v>
+      </c>
+      <c r="K78" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="2">
         <v>1943</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="2">
         <v>1945</v>
       </c>
       <c r="D79" s="2">
@@ -2880,15 +3596,24 @@
       <c r="H79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="2">
+        <v>96</v>
+      </c>
+      <c r="J79" s="2">
+        <v>57</v>
+      </c>
+      <c r="K79" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="2">
         <v>1945</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="2">
         <v>1947</v>
       </c>
       <c r="D80" s="2">
@@ -2906,8 +3631,17 @@
       <c r="H80" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="2">
+        <v>96</v>
+      </c>
+      <c r="J80" s="2">
+        <v>57</v>
+      </c>
+      <c r="K80" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2932,8 +3666,17 @@
       <c r="H81" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="2">
+        <v>96</v>
+      </c>
+      <c r="J81" s="2">
+        <v>45</v>
+      </c>
+      <c r="K81" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2958,8 +3701,17 @@
       <c r="H82" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="2">
+        <v>96</v>
+      </c>
+      <c r="J82" s="2">
+        <v>54</v>
+      </c>
+      <c r="K82" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2984,8 +3736,17 @@
       <c r="H83" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="2">
+        <v>96</v>
+      </c>
+      <c r="J83" s="2">
+        <v>49</v>
+      </c>
+      <c r="K83" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3010,8 +3771,17 @@
       <c r="H84" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="2">
+        <v>96</v>
+      </c>
+      <c r="J84" s="2">
+        <v>47</v>
+      </c>
+      <c r="K84" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3036,8 +3806,17 @@
       <c r="H85" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="2">
+        <v>96</v>
+      </c>
+      <c r="J85" s="2">
+        <v>48</v>
+      </c>
+      <c r="K85" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3062,8 +3841,17 @@
       <c r="H86" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="2">
+        <v>96</v>
+      </c>
+      <c r="J86" s="2">
+        <v>49</v>
+      </c>
+      <c r="K86" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3088,8 +3876,17 @@
       <c r="H87" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="2">
+        <v>100</v>
+      </c>
+      <c r="J87" s="2">
+        <v>65</v>
+      </c>
+      <c r="K87" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3114,8 +3911,17 @@
       <c r="H88" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="2">
+        <v>100</v>
+      </c>
+      <c r="J88" s="2">
+        <v>64</v>
+      </c>
+      <c r="K88" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3140,8 +3946,17 @@
       <c r="H89" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="2">
+        <v>100</v>
+      </c>
+      <c r="J89" s="2">
+        <v>66</v>
+      </c>
+      <c r="K89" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3166,8 +3981,17 @@
       <c r="H90" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="2">
+        <v>100</v>
+      </c>
+      <c r="J90" s="2">
+        <v>68</v>
+      </c>
+      <c r="K90" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3192,8 +4016,17 @@
       <c r="H91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="2">
+        <v>100</v>
+      </c>
+      <c r="J91" s="2">
+        <v>64</v>
+      </c>
+      <c r="K91" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3218,8 +4051,17 @@
       <c r="H92" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="2">
+        <v>100</v>
+      </c>
+      <c r="J92" s="2">
+        <v>57</v>
+      </c>
+      <c r="K92" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3244,8 +4086,17 @@
       <c r="H93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="2">
+        <v>100</v>
+      </c>
+      <c r="J93">
+        <v>54</v>
+      </c>
+      <c r="K93" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3270,8 +4121,17 @@
       <c r="H94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="2">
+        <v>100</v>
+      </c>
+      <c r="J94" s="2">
+        <v>56</v>
+      </c>
+      <c r="K94" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3296,8 +4156,17 @@
       <c r="H95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="2">
+        <v>100</v>
+      </c>
+      <c r="J95" s="2">
+        <v>61</v>
+      </c>
+      <c r="K95" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3322,8 +4191,17 @@
       <c r="H96" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="2">
+        <v>100</v>
+      </c>
+      <c r="J96" s="2">
+        <v>61</v>
+      </c>
+      <c r="K96" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3348,8 +4226,17 @@
       <c r="H97" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="2">
+        <v>100</v>
+      </c>
+      <c r="J97" s="2">
+        <v>58</v>
+      </c>
+      <c r="K97" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3374,8 +4261,17 @@
       <c r="H98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="2">
+        <v>100</v>
+      </c>
+      <c r="J98" s="2">
+        <v>46</v>
+      </c>
+      <c r="K98" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3400,8 +4296,17 @@
       <c r="H99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="2">
+        <v>100</v>
+      </c>
+      <c r="J99" s="2">
+        <v>45</v>
+      </c>
+      <c r="K99" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3426,8 +4331,17 @@
       <c r="H100" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="2">
+        <v>100</v>
+      </c>
+      <c r="J100" s="2">
+        <v>47</v>
+      </c>
+      <c r="K100" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3452,8 +4366,17 @@
       <c r="H101" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="2">
+        <v>100</v>
+      </c>
+      <c r="J101" s="2">
+        <v>55</v>
+      </c>
+      <c r="K101" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3478,8 +4401,17 @@
       <c r="H102" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="2">
+        <v>100</v>
+      </c>
+      <c r="J102" s="2">
+        <v>55</v>
+      </c>
+      <c r="K102" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3504,8 +4436,17 @@
       <c r="H103" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="2">
+        <v>100</v>
+      </c>
+      <c r="J103" s="2">
+        <v>56</v>
+      </c>
+      <c r="K103" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3530,8 +4471,17 @@
       <c r="H104" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="2">
+        <v>100</v>
+      </c>
+      <c r="J104" s="2">
+        <v>57</v>
+      </c>
+      <c r="K104" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3556,8 +4506,17 @@
       <c r="H105" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="2">
+        <v>100</v>
+      </c>
+      <c r="J105" s="2">
+        <v>48</v>
+      </c>
+      <c r="K105" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3582,8 +4541,17 @@
       <c r="H106" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="2">
+        <v>100</v>
+      </c>
+      <c r="J106" s="2">
+        <v>45</v>
+      </c>
+      <c r="K106" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3608,8 +4576,17 @@
       <c r="H107" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="2">
+        <v>100</v>
+      </c>
+      <c r="J107" s="2">
+        <v>45</v>
+      </c>
+      <c r="K107" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3634,8 +4611,17 @@
       <c r="H108" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="2">
+        <v>100</v>
+      </c>
+      <c r="J108" s="2">
+        <v>50</v>
+      </c>
+      <c r="K108" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3660,8 +4646,17 @@
       <c r="H109" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="2">
+        <v>100</v>
+      </c>
+      <c r="J109" s="2">
+        <v>48</v>
+      </c>
+      <c r="K109" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3686,8 +4681,17 @@
       <c r="H110" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="2">
+        <v>100</v>
+      </c>
+      <c r="J110" s="2">
+        <v>44</v>
+      </c>
+      <c r="K110" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3712,8 +4716,17 @@
       <c r="H111" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="2">
+        <v>100</v>
+      </c>
+      <c r="J111" s="2">
+        <v>49</v>
+      </c>
+      <c r="K111" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3738,8 +4751,17 @@
       <c r="H112" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="2">
+        <v>100</v>
+      </c>
+      <c r="J112" s="2">
+        <v>57</v>
+      </c>
+      <c r="K112" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3764,8 +4786,17 @@
       <c r="H113" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="2">
+        <v>100</v>
+      </c>
+      <c r="J113" s="2">
+        <v>51</v>
+      </c>
+      <c r="K113" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3790,8 +4821,17 @@
       <c r="H114" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="2">
+        <v>100</v>
+      </c>
+      <c r="J114" s="2">
+        <v>53</v>
+      </c>
+      <c r="K114" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3816,8 +4856,17 @@
       <c r="H115" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="2">
+        <v>100</v>
+      </c>
+      <c r="J115" s="2">
+        <v>44</v>
+      </c>
+      <c r="K115" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3842,8 +4891,17 @@
       <c r="H116" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="2">
+        <v>100</v>
+      </c>
+      <c r="J116" s="2">
+        <v>47</v>
+      </c>
+      <c r="K116" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3868,8 +4926,17 @@
       <c r="H117" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="2">
+        <v>100</v>
+      </c>
+      <c r="J117" s="2">
+        <v>45</v>
+      </c>
+      <c r="K117" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3894,8 +4961,17 @@
       <c r="H118" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="2">
+        <v>100</v>
+      </c>
+      <c r="J118" s="2">
+        <v>48</v>
+      </c>
+      <c r="K118" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3919,6 +4995,15 @@
       </c>
       <c r="H119" t="s">
         <v>10</v>
+      </c>
+      <c r="I119" s="2">
+        <v>100</v>
+      </c>
+      <c r="J119" s="2">
+        <v>48</v>
+      </c>
+      <c r="K119" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/all_congresses.xlsx
+++ b/all_congresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmurray/Banzai-predicament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84A332E-2D29-9143-ACB4-7E638B2BCACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC9EE7-F71A-384F-904E-F58809A84D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="700" windowWidth="22240" windowHeight="16440" xr2:uid="{11A546A8-5EB8-8C48-B726-E6C8776BF769}"/>
+    <workbookView xWindow="10100" yWindow="-20760" windowWidth="22240" windowHeight="16440" xr2:uid="{11A546A8-5EB8-8C48-B726-E6C8776BF769}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,13 +435,13 @@
     <t>end_year</t>
   </si>
   <si>
-    <t>num_senate</t>
-  </si>
-  <si>
     <t>party1_seats_senate</t>
   </si>
   <si>
     <t>party2_seats_senate</t>
+  </si>
+  <si>
+    <t>num_senate_seats</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -867,13 +867,13 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1555,13 +1555,13 @@
         <v>213</v>
       </c>
       <c r="E21" s="2">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2">
         <v>113</v>
       </c>
-      <c r="F21" s="2">
-        <v>100</v>
-      </c>
       <c r="G21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
         <v>7</v>
@@ -1570,10 +1570,10 @@
         <v>48</v>
       </c>
       <c r="J21" s="2">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2">
         <v>27</v>
-      </c>
-      <c r="K21" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11">
